--- a/Doc/G6-OS_Project_Tracking.xlsx
+++ b/Doc/G6-OS_Project_Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Backup-Dev\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A6D22A-CEC9-48E8-9D94-88BDC35BB744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F801A13-1F06-4AD7-950A-1E4005FB096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1440" windowWidth="17700" windowHeight="10308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -583,13 +583,58 @@
   </si>
   <si>
     <t>Tùng</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>HieuTD</t>
+  </si>
+  <si>
+    <t>ThanhDQ</t>
+  </si>
+  <si>
+    <t>TungNT</t>
+  </si>
+  <si>
+    <t>LinhTQ</t>
+  </si>
+  <si>
+    <t>TungTD</t>
+  </si>
+  <si>
+    <t>ThanhTQ</t>
+  </si>
+  <si>
+    <t>II.5</t>
+  </si>
+  <si>
+    <t>II.1</t>
+  </si>
+  <si>
+    <t>II.4</t>
+  </si>
+  <si>
+    <t>II.6</t>
+  </si>
+  <si>
+    <t>II.2</t>
+  </si>
+  <si>
+    <t>II.7</t>
+  </si>
+  <si>
+    <t>II.3</t>
+  </si>
+  <si>
+    <t>Show all account in the system. (Admin can CRUD account)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -657,6 +702,12 @@
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -729,7 +780,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -800,6 +851,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1262,7 +1335,7 @@
     </row>
     <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" ref="A11:A24" si="0">ROW()-5</f>
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1289,7 +1362,7 @@
     </row>
     <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1312,7 +1385,7 @@
     </row>
     <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1339,7 +1412,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1366,7 +1439,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1389,7 +1462,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1412,7 +1485,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1439,7 +1512,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1462,7 +1535,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1485,7 +1558,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1508,7 +1581,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1531,7 +1604,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1554,7 +1627,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1581,7 +1654,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1625,11 +1698,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="A6:I13"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1710,15 +1783,19 @@
       <c r="D6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>44</v>
+      <c r="E6" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1726,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
@@ -1734,17 +1811,21 @@
       <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>3</v>
       </c>
@@ -1758,16 +1839,20 @@
         <v>32</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>4</v>
       </c>
@@ -1781,16 +1866,20 @@
         <v>37</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>5</v>
       </c>
@@ -1804,16 +1893,20 @@
         <v>39</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>6</v>
       </c>
@@ -1827,16 +1920,20 @@
         <v>42</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>7</v>
       </c>
@@ -1849,11 +1946,19 @@
       <c r="D12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
@@ -1862,21 +1967,27 @@
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F11" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G12" xr:uid="{BFF7A3F5-B9B2-48CA-8632-6CBF1E15E6CD}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1887,9 +1998,9 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:I11"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1958,7 +2069,7 @@
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" ref="A6:A11" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1970,19 +2081,21 @@
       <c r="D6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>74</v>
+      <c r="E6" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1994,7 +2107,9 @@
       <c r="D7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2004,7 +2119,7 @@
     </row>
     <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2017,7 +2132,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -2028,7 +2143,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2040,8 +2155,8 @@
       <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>74</v>
+      <c r="E9" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -2052,7 +2167,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2064,7 +2179,9 @@
       <c r="D10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2074,7 +2191,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2086,7 +2203,9 @@
       <c r="D11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2115,9 +2234,9 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="A6:I13"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2186,7 +2305,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" ref="A6:A13" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2199,7 +2318,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -2210,7 +2329,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2222,7 +2341,9 @@
       <c r="D7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2232,7 +2353,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2244,7 +2365,9 @@
       <c r="D8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2377,7 @@
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2264,9 +2387,11 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +2401,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2288,7 +2413,9 @@
       <c r="D10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2298,7 +2425,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2310,7 +2437,9 @@
       <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2320,7 +2449,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2333,7 +2462,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>13</v>
@@ -2344,7 +2473,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2357,7 +2486,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>13</v>
